--- a/biology/Histoire de la zoologie et de la botanique/Cheng-chao_Liu/Cheng-chao_Liu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cheng-chao_Liu/Cheng-chao_Liu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheng-chao Liu (en chinois 刘承钊) est un herpétologiste chinois, né le 12 août 1900 à Tai'an et mort le 9 avril 1976 à Chengdu.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheng-chao Liu est diplômé à l’université de Pékin en 1929 où il étudie auprès de la biologiste Alice Middleton Boring (1883-1955). Il enseigne à l’université du Nord-Est à Shenyang. Sa bibliothèque et ses collections sont détruites lors de la guerre entre la Chine et le Japon en 1931. De 1932 à 1934, il étudie à l’université Cornell où il fait une thèse sous la direction d’Albert Hazen Wright (1820-1970).
 De retour en Chine, il enseigne à l’université de Suzhou. En 1939, il part à Chengdu. Il se marie, en 1941, avec l'herpétologiste Shu-qin Hu (1914-1992). En 1950, il prend la tête du département de biologie de l’université de Yenching. En 1951, il retourne à Chengdu pour y diriger l’école de médecine.
@@ -544,14 +558,16 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leptobrachium liui (Pope, 1947) - un amphibien de la famille des Megophryidae
 Ingerana liui (Yang, 1983) - un amphibien de la famille des Dicroglossidae
 Liua Zhao &amp; Hu, 1983 - un genre d'urodèles de la famille des Hynobiidae
 Leptolalax liui Fei &amp; Ye, in Fei, Ye &amp; Huang, 1991 - un amphibien de la famille des Megophryidae
 Lycodon liuchengchaoi Zhang, Jiang, Vogel &amp; Rao, 2011 - un serpent de la famille des Colubridae
-Plestiodon liui Hikida &amp; Zhao, 1989 - un reptile de la famille des Scincidae[1]</t>
+Plestiodon liui Hikida &amp; Zhao, 1989 - un reptile de la famille des Scincidae</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amolops daiyunensis
